--- a/0_Resourse/Restaurant database.xlsx
+++ b/0_Resourse/Restaurant database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Study\me\Microsoft\Power bi\Resourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\me\Microsoft\Power bi\0_Resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E81E946-496E-4946-AD3C-16DB2B6EAF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5426C3AF-76CE-47FE-8F05-9DAE2F2326D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="840" activeTab="3" xr2:uid="{1F0B20DC-CDE7-4AD9-BF5D-AFBC833D6A4B}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" tabRatio="840" xr2:uid="{1F0B20DC-CDE7-4AD9-BF5D-AFBC833D6A4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -2539,7 +2539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2605,7 +2605,6 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3084,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2B2EC-E89E-43A4-B407-5AB558A05BE0}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7957,8 +7956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6999F1A-8C9A-4866-9B42-A86D4CAC3381}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7968,7 +7967,7 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="63" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="45.109375" bestFit="1" customWidth="1"/>
@@ -7991,7 +7990,7 @@
       <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>106</v>
       </c>
       <c r="G1" s="26" t="s">
@@ -8026,7 +8025,7 @@
       <c r="E2" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="16" t="s">
         <v>750</v>
       </c>
       <c r="G2" s="28">
@@ -8061,7 +8060,7 @@
       <c r="E3" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="61" t="s">
         <v>751</v>
       </c>
       <c r="G3" s="30">
@@ -8096,7 +8095,7 @@
       <c r="E4" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>752</v>
       </c>
       <c r="G4" s="28">
@@ -8131,7 +8130,7 @@
       <c r="E5" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>753</v>
       </c>
       <c r="G5" s="30">
@@ -8166,7 +8165,7 @@
       <c r="E6" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="60" t="s">
         <v>754</v>
       </c>
       <c r="G6" s="28">
@@ -8201,7 +8200,7 @@
       <c r="E7" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="61" t="s">
         <v>755</v>
       </c>
       <c r="G7" s="30">
@@ -8236,7 +8235,7 @@
       <c r="E8" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="62" t="s">
         <v>756</v>
       </c>
       <c r="G8" s="41">
